--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
@@ -109,10 +109,10 @@
     <t>share</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>care</t>
@@ -1125,25 +1125,25 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
         <v>174</v>
       </c>
       <c r="M14">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,25 +1229,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.696319018404908</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1255,13 +1255,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="10:17">
